--- a/shipClassTests/testResults/parallel_series_sys_test.xlsx
+++ b/shipClassTests/testResults/parallel_series_sys_test.xlsx
@@ -498,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -619,11 +619,11 @@
         <v>3</v>
       </c>
       <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
       <c r="E3">
         <v>3</v>
       </c>
@@ -640,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -670,10 +670,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -691,7 +691,7 @@
         <v>3</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -718,19 +718,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -742,7 +742,7 @@
         <v>3</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -751,7 +751,7 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -769,19 +769,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -793,7 +793,7 @@
         <v>3</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -802,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N6">
         <v>3</v>
@@ -815,354 +815,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" s="4">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>3</v>
-      </c>
-      <c r="O7" s="4">
-        <v>3</v>
-      </c>
-      <c r="P7" s="3">
-        <f>IF(B7 = I7, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8" s="4">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>3</v>
-      </c>
-      <c r="O8" s="4">
-        <v>3</v>
-      </c>
-      <c r="P8" s="3">
-        <f>IF(B8 = I8, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9" s="4">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-      <c r="O9" s="4">
-        <v>3</v>
-      </c>
-      <c r="P9" s="3">
-        <f>IF(B9 = I9, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10" s="4">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
-      <c r="O10" s="4">
-        <v>3</v>
-      </c>
-      <c r="P10" s="3">
-        <f>IF(B10 = I10, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11" s="4">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>3</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>2</v>
-      </c>
-      <c r="O11" s="4">
-        <v>3</v>
-      </c>
-      <c r="P11" s="3">
-        <f>IF(B11 = I11, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12" s="4">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>2</v>
-      </c>
-      <c r="O12" s="4">
-        <v>3</v>
-      </c>
-      <c r="P12" s="3">
-        <f>IF(B12 = I12, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C13">
+  <conditionalFormatting sqref="C2:C7">
     <cfRule type="notContainsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(C2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D13">
+  <conditionalFormatting sqref="D2:D7">
     <cfRule type="notContainsBlanks" dxfId="0" priority="3">
       <formula>LEN(TRIM(D2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F13">
+  <conditionalFormatting sqref="F2:F7">
     <cfRule type="notContainsBlanks" dxfId="1" priority="4">
       <formula>LEN(TRIM(F2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G13">
+  <conditionalFormatting sqref="G2:G7">
     <cfRule type="notContainsBlanks" dxfId="1" priority="5">
       <formula>LEN(TRIM(G2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J13">
+  <conditionalFormatting sqref="J2:J7">
     <cfRule type="notContainsBlanks" dxfId="0" priority="6">
       <formula>LEN(TRIM(J2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K13">
+  <conditionalFormatting sqref="K2:K7">
     <cfRule type="notContainsBlanks" dxfId="0" priority="7">
       <formula>LEN(TRIM(K2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M13">
+  <conditionalFormatting sqref="M2:M7">
     <cfRule type="notContainsBlanks" dxfId="1" priority="8">
       <formula>LEN(TRIM(M2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N13">
+  <conditionalFormatting sqref="N2:N7">
     <cfRule type="notContainsBlanks" dxfId="1" priority="9">
       <formula>LEN(TRIM(N2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P12">
+  <conditionalFormatting sqref="P2:P6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1178,7 +872,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1267,28 +961,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="3">
         <f>IF(B3 = F3, 1, 0)</f>
@@ -1304,28 +998,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="3">
         <f>IF(B4 = F4, 1, 0)</f>
@@ -1341,28 +1035,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="3">
         <f>IF(B5 = F5, 1, 0)</f>
@@ -1378,28 +1072,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="3">
         <f>IF(B6 = F6, 1, 0)</f>
@@ -1410,230 +1104,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="4">
-        <v>2</v>
-      </c>
-      <c r="J7" s="3">
-        <f>IF(B7 = F7, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <f>MODE(C7:E7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8" s="4">
-        <v>2</v>
-      </c>
-      <c r="J8" s="3">
-        <f>IF(B8 = F8, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <f>MODE(C8:E8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9" s="4">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3">
-        <f>IF(B9 = F9, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <f>MODE(C9:E9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
-        <v>2</v>
-      </c>
-      <c r="J10" s="3">
-        <f>IF(B10 = F10, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <f>MODE(C10:E10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11" s="4">
-        <v>2</v>
-      </c>
-      <c r="J11" s="3">
-        <f>IF(B11 = F11, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <f>MODE(C11:E11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12" s="4">
-        <v>2</v>
-      </c>
-      <c r="J12" s="3">
-        <f>IF(B12 = F12, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <f>MODE(C12:E12)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J12">
+  <conditionalFormatting sqref="J2:J6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1643,7 +1115,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K12">
+  <conditionalFormatting sqref="K2:K6">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1659,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1748,13 +1220,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -1785,13 +1257,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -1822,10 +1294,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1859,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1891,230 +1363,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="4">
-        <v>3</v>
-      </c>
-      <c r="J7" s="3">
-        <f>IF(B7 = F7, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <f>MODE(C7:E7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8" s="4">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3">
-        <f>IF(B8 = F8, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <f>MODE(C8:E8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9" s="4">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3">
-        <f>IF(B9 = F9, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <f>MODE(C9:E9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10" s="4">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3">
-        <f>IF(B10 = F10, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <f>MODE(C10:E10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11" s="4">
-        <v>3</v>
-      </c>
-      <c r="J11" s="3">
-        <f>IF(B11 = F11, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <f>MODE(C11:E11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12" s="4">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3">
-        <f>IF(B12 = F12, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <f>MODE(C12:E12)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J12">
+  <conditionalFormatting sqref="J2:J6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2124,7 +1374,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K12">
+  <conditionalFormatting sqref="K2:K6">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2140,7 +1390,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2232,10 +1482,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -2269,10 +1519,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -2306,10 +1556,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -2346,10 +1596,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -2372,230 +1622,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="4">
-        <v>3</v>
-      </c>
-      <c r="J7" s="3">
-        <f>IF(B7 = F7, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <f>MODE(C7:E7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8" s="4">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3">
-        <f>IF(B8 = F8, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <f>MODE(C8:E8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9" s="4">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3">
-        <f>IF(B9 = F9, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <f>MODE(C9:E9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10" s="4">
-        <v>2</v>
-      </c>
-      <c r="J10" s="3">
-        <f>IF(B10 = F10, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <f>MODE(C10:E10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11" s="4">
-        <v>2</v>
-      </c>
-      <c r="J11" s="3">
-        <f>IF(B11 = F11, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <f>MODE(C11:E11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12" s="4">
-        <v>2</v>
-      </c>
-      <c r="J12" s="3">
-        <f>IF(B12 = F12, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <f>MODE(C12:E12)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J12">
+  <conditionalFormatting sqref="J2:J6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2605,7 +1633,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K12">
+  <conditionalFormatting sqref="K2:K6">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2621,7 +1649,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2719,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -2753,10 +1781,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -2784,28 +1812,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" s="3">
         <f>IF(B5 = F5, 1, 0)</f>
@@ -2821,28 +1849,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" s="3">
         <f>IF(B6 = F6, 1, 0)</f>
@@ -2853,230 +1881,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <f>IF(B7 = F7, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <f>MODE(C7:E7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
-        <f>IF(B8 = F8, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <f>MODE(C8:E8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
-        <f>IF(B9 = F9, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <f>MODE(C9:E9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3">
-        <f>IF(B10 = F10, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <f>MODE(C10:E10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3">
-        <f>IF(B11 = F11, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <f>MODE(C11:E11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3">
-        <f>IF(B12 = F12, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <f>MODE(C12:E12)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J12">
+  <conditionalFormatting sqref="J2:J6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -3086,7 +1892,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K12">
+  <conditionalFormatting sqref="K2:K6">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -3102,7 +1908,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3194,7 +2000,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3231,13 +2037,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -3268,13 +2074,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -3305,13 +2111,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -3334,230 +2140,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="4">
-        <v>3</v>
-      </c>
-      <c r="J7" s="3">
-        <f>IF(B7 = F7, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <f>MODE(C7:E7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8" s="4">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3">
-        <f>IF(B8 = F8, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <f>MODE(C8:E8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9" s="4">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3">
-        <f>IF(B9 = F9, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <f>MODE(C9:E9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
-        <v>2</v>
-      </c>
-      <c r="J10" s="3">
-        <f>IF(B10 = F10, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <f>MODE(C10:E10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11" s="4">
-        <v>2</v>
-      </c>
-      <c r="J11" s="3">
-        <f>IF(B11 = F11, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <f>MODE(C11:E11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12" s="4">
-        <v>2</v>
-      </c>
-      <c r="J12" s="3">
-        <f>IF(B12 = F12, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <f>MODE(C12:E12)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J12">
+  <conditionalFormatting sqref="J2:J6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -3567,7 +2151,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K12">
+  <conditionalFormatting sqref="K2:K6">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -3583,7 +2167,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3678,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -3715,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -3749,7 +2333,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3786,7 +2370,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3815,230 +2399,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="4">
-        <v>3</v>
-      </c>
-      <c r="J7" s="3">
-        <f>IF(B7 = F7, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <f>MODE(C7:E7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8" s="4">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3">
-        <f>IF(B8 = F8, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <f>MODE(C8:E8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9" s="4">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3">
-        <f>IF(B9 = F9, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <f>MODE(C9:E9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10" s="4">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3">
-        <f>IF(B10 = F10, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <f>MODE(C10:E10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11" s="4">
-        <v>3</v>
-      </c>
-      <c r="J11" s="3">
-        <f>IF(B11 = F11, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <f>MODE(C11:E11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12" s="4">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3">
-        <f>IF(B12 = F12, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <f>MODE(C12:E12)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J12">
+  <conditionalFormatting sqref="J2:J6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -4048,7 +2410,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K12">
+  <conditionalFormatting sqref="K2:K6">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/shipClassTests/testResults/parallel_series_sys_test.xlsx
+++ b/shipClassTests/testResults/parallel_series_sys_test.xlsx
@@ -498,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -622,7 +622,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -673,7 +673,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -718,13 +718,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -769,13 +769,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -815,48 +815,252 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7" s="4">
+        <v>3</v>
+      </c>
+      <c r="P7" s="3">
+        <f>IF(B7 = I7, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8" s="4">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3">
+        <f>IF(B8 = I8, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9" s="4">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3">
+        <f>IF(B9 = I9, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10" s="4">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3">
+        <f>IF(B10 = I10, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C7">
+  <conditionalFormatting sqref="C2:C11">
     <cfRule type="notContainsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(C2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D7">
+  <conditionalFormatting sqref="D2:D11">
     <cfRule type="notContainsBlanks" dxfId="0" priority="3">
       <formula>LEN(TRIM(D2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F7">
+  <conditionalFormatting sqref="F2:F11">
     <cfRule type="notContainsBlanks" dxfId="1" priority="4">
       <formula>LEN(TRIM(F2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G7">
+  <conditionalFormatting sqref="G2:G11">
     <cfRule type="notContainsBlanks" dxfId="1" priority="5">
       <formula>LEN(TRIM(G2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J7">
+  <conditionalFormatting sqref="J2:J11">
     <cfRule type="notContainsBlanks" dxfId="0" priority="6">
       <formula>LEN(TRIM(J2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K7">
+  <conditionalFormatting sqref="K2:K11">
     <cfRule type="notContainsBlanks" dxfId="0" priority="7">
       <formula>LEN(TRIM(K2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M7">
+  <conditionalFormatting sqref="M2:M11">
     <cfRule type="notContainsBlanks" dxfId="1" priority="8">
       <formula>LEN(TRIM(M2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N7">
+  <conditionalFormatting sqref="N2:N11">
     <cfRule type="notContainsBlanks" dxfId="1" priority="9">
       <formula>LEN(TRIM(N2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P6">
+  <conditionalFormatting sqref="P2:P10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -872,7 +1076,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -964,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1035,7 +1239,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1056,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="3">
         <f>IF(B5 = F5, 1, 0)</f>
@@ -1072,7 +1276,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1093,7 +1297,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" s="3">
         <f>IF(B6 = F6, 1, 0)</f>
@@ -1104,8 +1308,156 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3">
+        <f>IF(B7 = F7, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <f>MODE(C7:E7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3">
+        <f>IF(B8 = F8, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <f>MODE(C8:E8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3">
+        <f>IF(B9 = F9, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <f>MODE(C9:E9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
+      <c r="J10" s="3">
+        <f>IF(B10 = F10, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <f>MODE(C10:E10)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J6">
+  <conditionalFormatting sqref="J2:J10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1115,7 +1467,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K6">
+  <conditionalFormatting sqref="K2:K10">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1131,7 +1483,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1220,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1229,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -1257,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1294,7 +1646,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1331,7 +1683,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1363,8 +1715,156 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <f>IF(B7 = F7, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <f>MODE(C7:E7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
+        <f>IF(B8 = F8, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <f>MODE(C8:E8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3">
+        <f>IF(B9 = F9, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <f>MODE(C9:E9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3">
+        <f>IF(B10 = F10, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <f>MODE(C10:E10)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J6">
+  <conditionalFormatting sqref="J2:J10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1374,7 +1874,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K6">
+  <conditionalFormatting sqref="K2:K10">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1390,7 +1890,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1485,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -1522,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -1559,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -1596,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1622,8 +2122,156 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <f>IF(B7 = F7, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <f>MODE(C7:E7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
+        <f>IF(B8 = F8, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <f>MODE(C8:E8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3">
+        <f>IF(B9 = F9, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <f>MODE(C9:E9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3">
+        <f>IF(B10 = F10, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <f>MODE(C10:E10)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J6">
+  <conditionalFormatting sqref="J2:J10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1633,7 +2281,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K6">
+  <conditionalFormatting sqref="K2:K10">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1649,7 +2297,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1747,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -1781,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -1815,7 +2463,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1852,7 +2500,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1881,8 +2529,156 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <f>IF(B7 = F7, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <f>MODE(C7:E7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
+        <f>IF(B8 = F8, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <f>MODE(C8:E8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3">
+        <f>IF(B9 = F9, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <f>MODE(C9:E9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3">
+        <f>IF(B10 = F10, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <f>MODE(C10:E10)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J6">
+  <conditionalFormatting sqref="J2:J10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1892,7 +2688,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K6">
+  <conditionalFormatting sqref="K2:K10">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1908,7 +2704,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2000,7 +2796,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2037,13 +2833,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -2074,13 +2870,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -2111,13 +2907,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -2140,8 +2936,156 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <f>IF(B7 = F7, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <f>MODE(C7:E7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
+        <f>IF(B8 = F8, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <f>MODE(C8:E8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3">
+        <f>IF(B9 = F9, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <f>MODE(C9:E9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3">
+        <f>IF(B10 = F10, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <f>MODE(C10:E10)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J6">
+  <conditionalFormatting sqref="J2:J10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2151,7 +3095,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K6">
+  <conditionalFormatting sqref="K2:K10">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2167,7 +3111,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2299,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -2333,13 +3277,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -2370,13 +3314,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -2399,8 +3343,156 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <f>IF(B7 = F7, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <f>MODE(C7:E7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
+        <f>IF(B8 = F8, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <f>MODE(C8:E8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3">
+        <f>IF(B9 = F9, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <f>MODE(C9:E9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3">
+        <f>IF(B10 = F10, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <f>MODE(C10:E10)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J6">
+  <conditionalFormatting sqref="J2:J10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2410,7 +3502,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K6">
+  <conditionalFormatting sqref="K2:K10">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
